--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.0653574147466</v>
+        <v>0.4181183333333333</v>
       </c>
       <c r="H2">
-        <v>23.0653574147466</v>
+        <v>1.254355</v>
       </c>
       <c r="I2">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="J2">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N2">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q2">
-        <v>1372.050963640232</v>
+        <v>25.61958902850555</v>
       </c>
       <c r="R2">
-        <v>1372.050963640232</v>
+        <v>230.57630125655</v>
       </c>
       <c r="S2">
-        <v>0.3264649194541143</v>
+        <v>0.005459104332638594</v>
       </c>
       <c r="T2">
-        <v>0.3264649194541143</v>
+        <v>0.005459104332638592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>23.0653574147466</v>
+        <v>0.4181183333333333</v>
       </c>
       <c r="H3">
-        <v>23.0653574147466</v>
+        <v>1.254355</v>
       </c>
       <c r="I3">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="J3">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N3">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q3">
-        <v>2060.34576272138</v>
+        <v>37.491457988715</v>
       </c>
       <c r="R3">
-        <v>2060.34576272138</v>
+        <v>337.423121898435</v>
       </c>
       <c r="S3">
-        <v>0.4902373390634728</v>
+        <v>0.007988800308834256</v>
       </c>
       <c r="T3">
-        <v>0.4902373390634728</v>
+        <v>0.007988800308834254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>23.0653574147466</v>
+        <v>0.4181183333333333</v>
       </c>
       <c r="H4">
-        <v>23.0653574147466</v>
+        <v>1.254355</v>
       </c>
       <c r="I4">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="J4">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N4">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q4">
-        <v>568.5465165576214</v>
+        <v>10.62277904563556</v>
       </c>
       <c r="R4">
-        <v>568.5465165576214</v>
+        <v>95.60501141071998</v>
       </c>
       <c r="S4">
-        <v>0.1352795906658249</v>
+        <v>0.002263535884520559</v>
       </c>
       <c r="T4">
-        <v>0.1352795906658249</v>
+        <v>0.002263535884520558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.16342114288192</v>
+        <v>24.89087966666667</v>
       </c>
       <c r="H5">
-        <v>1.16342114288192</v>
+        <v>74.672639</v>
       </c>
       <c r="I5">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385497</v>
       </c>
       <c r="J5">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385496</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N5">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q5">
-        <v>69.20651917537586</v>
+        <v>1525.152227921088</v>
       </c>
       <c r="R5">
-        <v>69.20651917537586</v>
+        <v>13726.37005128979</v>
       </c>
       <c r="S5">
-        <v>0.01646695444048606</v>
+        <v>0.3249843362480778</v>
       </c>
       <c r="T5">
-        <v>0.01646695444048606</v>
+        <v>0.3249843362480778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.16342114288192</v>
+        <v>24.89087966666667</v>
       </c>
       <c r="H6">
-        <v>1.16342114288192</v>
+        <v>74.672639</v>
       </c>
       <c r="I6">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385497</v>
       </c>
       <c r="J6">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N6">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q6">
-        <v>103.9242435699132</v>
+        <v>2231.892971268087</v>
       </c>
       <c r="R6">
-        <v>103.9242435699132</v>
+        <v>20087.03674141279</v>
       </c>
       <c r="S6">
-        <v>0.02472766734288574</v>
+        <v>0.4755789242317119</v>
       </c>
       <c r="T6">
-        <v>0.02472766734288574</v>
+        <v>0.4755789242317118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>24.89087966666667</v>
+      </c>
+      <c r="H7">
+        <v>74.672639</v>
+      </c>
+      <c r="I7">
+        <v>0.9353131502385497</v>
+      </c>
+      <c r="J7">
+        <v>0.9353131502385496</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>25.40615466666667</v>
+      </c>
+      <c r="N7">
+        <v>76.218464</v>
+      </c>
+      <c r="O7">
+        <v>0.1440692774654054</v>
+      </c>
+      <c r="P7">
+        <v>0.1440692774654053</v>
+      </c>
+      <c r="Q7">
+        <v>632.3815386007218</v>
+      </c>
+      <c r="R7">
+        <v>5691.433847406496</v>
+      </c>
+      <c r="S7">
+        <v>0.13474988975876</v>
+      </c>
+      <c r="T7">
+        <v>0.13474988975876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.303350666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.910052</v>
+      </c>
+      <c r="I8">
+        <v>0.04897540923545694</v>
+      </c>
+      <c r="J8">
+        <v>0.04897540923545693</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.27353666666666</v>
+      </c>
+      <c r="N8">
+        <v>183.82061</v>
+      </c>
+      <c r="O8">
+        <v>0.3474604587406809</v>
+      </c>
+      <c r="P8">
+        <v>0.3474604587406808</v>
+      </c>
+      <c r="Q8">
+        <v>79.86090486352445</v>
+      </c>
+      <c r="R8">
+        <v>718.74814377172</v>
+      </c>
+      <c r="S8">
+        <v>0.01701701815996445</v>
+      </c>
+      <c r="T8">
+        <v>0.01701701815996444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.16342114288192</v>
-      </c>
-      <c r="H7">
-        <v>1.16342114288192</v>
-      </c>
-      <c r="I7">
-        <v>0.04801815081658801</v>
-      </c>
-      <c r="J7">
-        <v>0.04801815081658801</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>24.6493694562967</v>
-      </c>
-      <c r="N7">
-        <v>24.6493694562967</v>
-      </c>
-      <c r="O7">
-        <v>0.1421031196990411</v>
-      </c>
-      <c r="P7">
-        <v>0.1421031196990411</v>
-      </c>
-      <c r="Q7">
-        <v>28.67759758416339</v>
-      </c>
-      <c r="R7">
-        <v>28.67759758416339</v>
-      </c>
-      <c r="S7">
-        <v>0.006823529033216213</v>
-      </c>
-      <c r="T7">
-        <v>0.006823529033216213</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.303350666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.910052</v>
+      </c>
+      <c r="I9">
+        <v>0.04897540923545694</v>
+      </c>
+      <c r="J9">
+        <v>0.04897540923545693</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>89.66709900000001</v>
+      </c>
+      <c r="N9">
+        <v>269.001297</v>
+      </c>
+      <c r="O9">
+        <v>0.5084702637939138</v>
+      </c>
+      <c r="P9">
+        <v>0.5084702637939138</v>
+      </c>
+      <c r="Q9">
+        <v>116.867673259716</v>
+      </c>
+      <c r="R9">
+        <v>1051.809059337444</v>
+      </c>
+      <c r="S9">
+        <v>0.02490253925336767</v>
+      </c>
+      <c r="T9">
+        <v>0.02490253925336767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.303350666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.910052</v>
+      </c>
+      <c r="I10">
+        <v>0.04897540923545694</v>
+      </c>
+      <c r="J10">
+        <v>0.04897540923545693</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>25.40615466666667</v>
+      </c>
+      <c r="N10">
+        <v>76.218464</v>
+      </c>
+      <c r="O10">
+        <v>0.1440692774654054</v>
+      </c>
+      <c r="P10">
+        <v>0.1440692774654053</v>
+      </c>
+      <c r="Q10">
+        <v>33.11312862223645</v>
+      </c>
+      <c r="R10">
+        <v>298.018157600128</v>
+      </c>
+      <c r="S10">
+        <v>0.007055851822124822</v>
+      </c>
+      <c r="T10">
+        <v>0.00705585182212482</v>
       </c>
     </row>
   </sheetData>
